--- a/tep_tepe.xlsx
+++ b/tep_tepe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/Desktop/chatbot-heroku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DF2214-AE6E-8149-B6F7-0663D86E89CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F71479-5B64-944C-B58A-8288BEAB53B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15100" yWindow="4020" windowWidth="28040" windowHeight="16440" xr2:uid="{54F378D5-5168-784E-902A-D1C54283D9F0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{54F378D5-5168-784E-902A-D1C54283D9F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>คำถาม</t>
   </si>
@@ -88,6 +88,90 @@
   </si>
   <si>
     <t>รับวุฒิ ปวช. โดยสมัครได้ในรอบ Inter Admission 1 หรือ Inter Admission 2 เท่านั้น</t>
+  </si>
+  <si>
+    <t>สมัคร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รอบ Inter Portfolio 1 
+รอบ Inter Program Admission 1
+รอบ Inter Program Admission 2 
+สมัครได้ที่ www.tse-admission.engr.tu.ac.th
+รอบ TCAS 1.2 Portfolio สมัครได้ที่ www.tuadmissions.in.th
+รอบ TCAS 3 Admission สมัครได้ที่ student.mytcas.com	     	</t>
+  </si>
+  <si>
+    <t>ค่าเทอม</t>
+  </si>
+  <si>
+    <t>สามารถดูรายละเอียดค่าเทอมได้ที่ https://tep.engr.tu.ac.th/admission/tuitionfees</t>
+  </si>
+  <si>
+    <t>สาขา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ช่วงที่ 1 ระยะเวลา 2 ปีแรก ศึกษา ณ คณะวิศวกรรมศาสตร์ มหาวิทยาลัยธรรมศาสตร์ มีสาขาให้เลือกเรียนดังนี้
+- วิศวกรรมโยธา
+- วิศวกรรมเครื่องกล
+- วิศวกรรมไฟฟ้า
+- วิศวกรรมเคมี
+- วิศวกรรมอุตสาหการ
+ช่วงที่ 2 ระยะเวลา 2 ปีหลังเดินทางไปศึกษาต่อ ณ มหาวิทยาลัยคู่สัญญา สามารถเลือกสาขาได้ตามข้อกำหนดของแต่ละมหาวิทยาลัย ดังนี้
+TEP-NU เลือกสาขาได้ดังนี้
+1. วิศวกรรมศาสตร์ สาขาวิศวกรรมเคมี
+2. วิศวกรรมศาสตร์ สาขาวิศวกรรมโยธา
+3. วิศวกรรมศาสตร์ สาขาวิศวกรรมไฟฟ้าและอิเล็กทรอนิกส์
+4. วิศวกรรมศาสตร์ สาขาวิศวกรรมไฟฟ้าและคอมพิวเตอร์ (ผู้ที่เลือกสาขาคอมพิวเตอร์จะเรียนที่ไทย 2 ปีแรกในสาขาไฟฟ้า และเลือก 2 ปีหลังเป็น computer ที่ The university of Nottingham)
+5. วิศวกรรมศาสตร์ สาขาวิศวกรรมอุตสาหการ
+6. วิศวกรรมศาสตร์ สาขาวิศวกรรมเครื่องกล
+TEP-UNSW เลือกสาขาได้ดังนี้
+1. วิศวกรรมศาสตร์ สาขาวิศวกรรมเคมี
+2. วิศวกรรมศาสตร์ สาขาวิศวกรรมโยธา
+3. วิศวกรรมศาสตร์ สาขาวิศวกรรมไฟฟ้า
+4. วิศวกรรมคอมพิวเตอร์ (สำหรับนักศึกษาภาควิชาวิศวกรรมไฟฟ้าของ TSE เท่านั้นจึงจะสามาถเลือกไปเรียนต่อ UNSW ในสาขาคอมพิวเตอร์ได้)
+5. วิศวกรรมศาสตร์ สาขาวิศวกรรมโทรคมนาคม
+6. วิศวกรรมศาสตร์ สาขาวิศวกรรมเครื่องกล
+7. วิศวกรรมศาสตร์ สาขาวิศวกรรมเครื่องกลและอุตสาหการ
+8. วิศวกรรมศาสตร์ สาขาวิศวกรรมการบินและอวกาศ
+9. วิศวกรรมศาสตร์ สาขาวิศวกรรมโฟโตวอลเทอิกและพลังงานแสงอาทิตย์ (สำหรับนักศึกษาภาควิชาวิศวกรรมไฟฟ้า หรือ วิศวกรรมเครื่องกลของ TSE เท่านั้นจึงจะสามาถเลือกไปเรียนต่อ UNSW ในสาขานี้ได้)
+10. วิศวกรรมศาสตร์ สาขาวิศวกรรมพลังงานหมุนเวียน (สำหรับนักศึกษาภาควิชาวิศวกรรมไฟฟ้า หรือ วิศวกรรมเครื่องกลของ TSE เท่านั้นจึงจะสามาถเลือกไปเรียนต่อ UNSW ในสาขานี้ได้)
+</t>
+  </si>
+  <si>
+    <t>TEPE มี 5 สาขาด้วยกันคือ
+- วิศวกรรมโยธา
+- วิศวกรรมเครื่องกล
+- วิศวกรรมไฟฟ้า
+- วิศวกรรมเคมี
+- วิศวกรรมอุตสาหการ</t>
+  </si>
+  <si>
+    <t>วุฒิ</t>
+  </si>
+  <si>
+    <t>วศ.บ.วิศวกรรมศาสตรบัณฑิต</t>
+  </si>
+  <si>
+    <t>TEP-TEPE สามารถกู้ กยศ. ได้ค่ะ</t>
+  </si>
+  <si>
+    <t>ทุน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">มีทุน TEPE ทั้งทุนเต็มจำนวนและทุนแรกเข้า สามารถยื่นคะแนนสมัครมาได้เลยทุกรอบ แล้วกรรมการจะคัดเลือกให้ทุนเองค่ะ </t>
+  </si>
+  <si>
+    <t>หลักสูตร TEP ไม่มีทุนให้ แต่มีส่วนลดค่าเทอม 25% สำหรับนักศึกษาที่เลือกเรียน TEP-NU ค่ะ
+สามารถดูรายละเอียดทุนเพิ่มเติมได้ที่ https://tep.engr.tu.ac.th/admission/domesticappliances และ https://tep.engr.tu.ac.th/scholarship</t>
+  </si>
+  <si>
+    <t>กยศ.</t>
+  </si>
+  <si>
+    <t>สัมภาษณ์</t>
+  </si>
+  <si>
+    <t>สอบสัมภาษณ์เป็นภาษาไทยหรือภาษาอังกฤษ</t>
   </si>
 </sst>
 </file>
@@ -452,15 +536,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71513CF0-5D94-A641-B741-1385F8A5F0D9}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="107.6640625" customWidth="1"/>
+    <col min="3" max="3" width="128.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -482,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -493,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="404" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -504,7 +592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -515,7 +603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -526,8 +614,83 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:4" ht="107" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
